--- a/data/exp_raw/johann_batch_preprocessed.xlsx
+++ b/data/exp_raw/johann_batch_preprocessed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -149,6 +149,9 @@
   <si>
     <t>t</t>
   </si>
+  <si>
+    <t>dry weight (g)</t>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +192,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -249,11 +259,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -329,9 +351,16 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,15 +638,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -633,8 +662,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -648,8 +680,11 @@
       <c r="E2" s="5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F2" s="27">
+        <v>12.135000000000019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -663,8 +698,11 @@
       <c r="E3" s="5">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="27">
+        <v>22.545000000000016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -678,8 +716,11 @@
       <c r="E4" s="5">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="27">
+        <v>12.605000000000018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -693,8 +734,11 @@
       <c r="E5" s="5">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="27">
+        <v>13.975000000000023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -708,8 +752,11 @@
       <c r="E6" s="5">
         <v>40.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="27">
+        <v>5.1450000000000244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -723,8 +770,11 @@
       <c r="E7" s="5">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="27">
+        <v>5.5650000000000261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -738,8 +788,11 @@
       <c r="E8" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="27">
+        <v>17.325000000000017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -753,8 +806,11 @@
       <c r="E9" s="5">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="27">
+        <v>19.115000000000023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -768,8 +824,11 @@
       <c r="E10" s="5">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="27">
+        <v>13.135000000000019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -783,8 +842,11 @@
       <c r="E11" s="5">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="27">
+        <v>3.8150000000000261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -798,8 +860,11 @@
       <c r="E12" s="5">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="27">
+        <v>20.995000000000019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -813,8 +878,11 @@
       <c r="E13" s="5">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="27">
+        <v>3.3450000000000131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -828,8 +896,11 @@
       <c r="E14" s="5">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="27">
+        <v>7.0950000000000131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -843,8 +914,11 @@
       <c r="E15" s="5">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="27">
+        <v>3.555000000000021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -858,8 +932,11 @@
       <c r="E16" s="5">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="27">
+        <v>13.625000000000014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -873,8 +950,11 @@
       <c r="E17" s="5">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="27">
+        <v>5.7650000000000148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -888,8 +968,11 @@
       <c r="E18" s="5">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="27">
+        <v>5.8750000000000142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -903,8 +986,11 @@
       <c r="E19" s="5">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F19" s="27">
+        <v>8.9750000000000227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -918,8 +1004,11 @@
       <c r="E20" s="5">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F20" s="27">
+        <v>4.9350000000000165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -933,8 +1022,11 @@
       <c r="E21" s="5">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F21" s="27">
+        <v>6.2650000000000148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -948,8 +1040,11 @@
       <c r="E22" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F22" s="27">
+        <v>7.285000000000025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -963,8 +1058,11 @@
       <c r="E23" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F23" s="27">
+        <v>12.185000000000016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -978,8 +1076,11 @@
       <c r="E24" s="5">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F24" s="27">
+        <v>15.115000000000023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -992,6 +1093,9 @@
       </c>
       <c r="E25" s="5">
         <v>30.5</v>
+      </c>
+      <c r="F25" s="27">
+        <v>1.4750000000000227</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5538,7 +5642,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K8" sqref="A8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/exp_raw/johann_batch_preprocessed.xlsx
+++ b/data/exp_raw/johann_batch_preprocessed.xlsx
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Short ID</t>
-  </si>
-  <si>
-    <t>Fazies</t>
   </si>
   <si>
     <t>TOC %</t>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>dry weight (g)</t>
+  </si>
+  <si>
+    <t>Facies</t>
   </si>
 </sst>
 </file>
@@ -641,14 +641,14 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -657,25 +657,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5">
         <v>1.3</v>
@@ -686,14 +686,14 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5">
         <v>0.65</v>
@@ -704,14 +704,14 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5">
         <v>2.9</v>
@@ -722,14 +722,14 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
         <v>2.06</v>
@@ -740,14 +740,14 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5">
         <v>40.1</v>
@@ -758,14 +758,14 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
         <v>24.6</v>
@@ -776,14 +776,14 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5">
         <v>0.89</v>
@@ -794,14 +794,14 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5">
         <v>0.53</v>
@@ -812,14 +812,14 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5">
         <v>3.49</v>
@@ -830,14 +830,14 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5">
         <v>29.5</v>
@@ -848,14 +848,14 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="5">
         <v>0.45</v>
@@ -866,14 +866,14 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="5">
         <v>19.600000000000001</v>
@@ -884,14 +884,14 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5">
         <v>20.100000000000001</v>
@@ -902,14 +902,14 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5">
         <v>30.8</v>
@@ -920,14 +920,14 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5">
         <v>4.9000000000000004</v>
@@ -938,14 +938,14 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="5">
         <v>25.4</v>
@@ -956,14 +956,14 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="5">
         <v>11.2</v>
@@ -974,14 +974,14 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5">
         <v>8.5</v>
@@ -992,14 +992,14 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="5">
         <v>15.4</v>
@@ -1010,14 +1010,14 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2">
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="5">
         <v>9.4</v>
@@ -1028,14 +1028,14 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="5">
         <v>6.5</v>
@@ -1046,14 +1046,14 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2">
         <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="5">
         <v>9.1</v>
@@ -1064,14 +1064,14 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="5">
         <v>3.4</v>
@@ -1082,14 +1082,14 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2">
         <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5">
         <v>30.5</v>
@@ -1115,7 +1115,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="6">
         <f>34.941*5</f>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
         <f>30.3*5</f>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6">
         <f>38.168*5</f>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6">
         <f>38.051*5</f>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6">
         <f>37.342*5</f>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
         <f>37.054*5</f>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <f>14.738*5</f>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6">
         <f>39.99*5</f>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6">
         <f>39.473*5</f>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6">
         <f>40.286*5</f>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6">
         <f>32.395*5</f>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6">
         <f>39.738*5</f>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6">
         <f>38.163*5</f>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6">
         <f>38.477*5</f>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6">
         <f>37.926*5</f>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6">
         <f>40.787*5</f>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6">
         <f>41.464*5</f>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6">
         <f>35.706*5</f>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="6">
         <f>42.273*5</f>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6">
         <f>34.658*5</f>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6">
         <f>36.36*5</f>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6">
         <f>38.79*5</f>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6">
         <f>35.355*5</f>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="6">
         <f>36.304*5</f>
@@ -2571,7 +2571,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="9">
         <v>10.024394707585699</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9">
         <v>11.3410595546338</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="9">
         <v>8.0086674868742502</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9">
         <v>8.3092095523029599</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9">
         <v>16.277277413358998</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9">
         <v>13.9971784435131</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9">
         <v>19.358082344819699</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9">
         <v>18.244566691448298</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9">
         <v>11.9934117263725</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9">
         <v>17.778009134467801</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9">
         <v>12.369356966486301</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9">
         <v>9.6149539395690695</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="9">
         <v>13.2947818118211</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="9">
         <v>17</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="9">
         <v>7.7937454968791302</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9">
         <v>11.4698108577777</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9">
         <v>18</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="9">
         <v>13.499792796299801</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="9">
         <v>21.1</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="9">
         <v>11.8842377180758</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="9">
         <v>10.144427996618001</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="9">
         <v>18.585580659204801</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="9">
         <v>10.004572696552801</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="9">
         <v>27.2917808308272</v>
@@ -3638,7 +3638,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7">
         <v>20</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="12">
         <f>5.97*5</f>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="12">
         <f>6.49*5</f>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="12">
         <f>5.37*5</f>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12">
         <f>4.71*5</f>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="12">
         <f>4.22*5</f>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="12">
         <f>5.83*5</f>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="12">
         <f>3.83*5</f>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12">
         <f>5.72*5</f>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="12">
         <f>6.14*5</f>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="12">
         <f>12.64*5</f>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="12">
         <f>6.95*5</f>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="15">
         <f>5.842*5</f>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="15">
         <f>3.738*5</f>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="15">
         <f>3.712*5</f>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="15">
         <f>5.695*5</f>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="15">
         <f>8.065*5</f>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="15">
         <f>6.307*5</f>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="15">
         <f>6.446*5</f>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="15">
         <f>4.356*5</f>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="7">
         <f>4*5</f>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="15">
         <f>4.143*5</f>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="7">
         <f>3.82*5</f>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="7">
         <f>3.45*5</f>
@@ -4658,7 +4658,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="9">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9">
         <f>5*1.58</f>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="9">
         <f>5*2.15</f>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9">
         <f>5*2.7</f>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9">
         <f>5*2.5</f>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9">
         <f>5*2.26</f>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9">
         <f>5*0.25</f>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9">
         <f>5*0.57</f>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9">
         <f>5*2.39</f>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9">
         <f>5*2.46</f>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9">
         <f>5*1.1</f>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9">
         <f>5*2.34</f>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="9">
         <f>5*2.6</f>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="9">
         <f>5*2.76</f>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="9">
         <f>5*2.81</f>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9">
         <f>5*3.58</f>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9">
         <f>5*3.06</f>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="9">
         <f>5*2.3</f>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="9">
         <f>5*2.32</f>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="22">
         <f t="shared" ref="B20:B21" si="1">5*2</f>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="9">
         <f t="shared" si="1"/>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="9">
         <f>5*2.29</f>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="9">
         <f>5*2.48</f>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="9">
         <v>11.5</v>
@@ -5649,7 +5649,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="23">
         <v>0</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="25">
         <v>165.63030000000001</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="25">
         <v>30.4117</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="23">
         <v>0</v>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="25">
         <v>12.248100000000001</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="23">
         <v>0</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="23">
         <v>0</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="23">
         <v>0</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="23">
         <v>0</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="23">
         <v>0</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="23">
         <v>0</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="25">
         <v>35.697400000000002</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="25">
         <v>14.9194</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="25">
         <v>4.4951999999999996</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="23">
         <v>0</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="25">
         <v>16.058499999999999</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="23">
         <v>0</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="25">
         <v>19.234400000000001</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="25">
         <v>6.5155000000000003</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="25">
         <v>70.665800000000004</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="25">
         <v>16.5383</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="25">
         <v>0.67969999999999997</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="25">
         <v>1.3188</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="25">
         <v>29.225300000000001</v>
@@ -6312,7 +6312,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="15">
         <f>0.54*5</f>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="15">
         <f>1.85*5</f>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="15">
         <f>1.138*5</f>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="15">
         <f>0.284*5</f>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="15">
         <f>0.322*5</f>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="15">
         <f>1.064*5</f>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="15">
         <f>1.442*5</f>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="15">
         <f>0.438*5</f>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="15">
         <f>0.626*5</f>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="15">
         <f>1.253*5</f>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15">
         <f>0.419*5</f>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="15">
         <f>1.281*5</f>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="15">
         <f>0.886*5</f>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="15">
         <f>0.447*5</f>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="15">
         <f>0.386*5</f>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="15">
         <f>0.855*5</f>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="15">
         <f>0.357*5</f>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="26"/>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="15">
         <f>0.297*5</f>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="15">
         <f>0.44*5</f>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="15">
         <f>0.628*5</f>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="15">
         <f>0.825*5</f>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="15">
         <f>0.272*5</f>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="12">
         <v>4.5</v>

--- a/data/exp_raw/johann_batch_preprocessed.xlsx
+++ b/data/exp_raw/johann_batch_preprocessed.xlsx
@@ -641,10 +641,14 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -1198,7 +1202,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2568,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/exp_raw/johann_batch_preprocessed.xlsx
+++ b/data/exp_raw/johann_batch_preprocessed.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcant\Documents\AmmerBatch\data\exp_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/AmmerBatch/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A797EDB-C0D6-D14D-AF95-4DD6B4092CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -21,10 +22,21 @@
     <sheet name="N2O (ppm)" sheetId="5" r:id="rId7"/>
     <sheet name="NO2- (mg L)" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -156,11 +168,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +210,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -285,9 +303,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,16 +366,16 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,20 +652,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -666,11 +681,11 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -681,14 +696,14 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>1.3</v>
       </c>
       <c r="F2" s="27">
-        <v>12.135000000000019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -699,14 +714,14 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>0.65</v>
       </c>
       <c r="F3" s="27">
-        <v>22.545000000000016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>22.545000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -717,14 +732,14 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>2.9</v>
       </c>
       <c r="F4" s="27">
-        <v>12.605000000000018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12.605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -735,14 +750,14 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>2.06</v>
       </c>
       <c r="F5" s="27">
-        <v>13.975000000000023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13.975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -753,14 +768,14 @@
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>40.1</v>
       </c>
       <c r="F6" s="27">
-        <v>5.1450000000000244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -771,14 +786,14 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>24.6</v>
       </c>
       <c r="F7" s="27">
-        <v>5.5650000000000261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5.5650000000000297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -789,14 +804,14 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>0.89</v>
       </c>
       <c r="F8" s="27">
-        <v>17.325000000000017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>17.324999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -807,14 +822,14 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>0.53</v>
       </c>
       <c r="F9" s="27">
-        <v>19.115000000000023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19.114999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -825,14 +840,14 @@
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>3.49</v>
       </c>
       <c r="F10" s="27">
-        <v>13.135000000000019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13.135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -843,14 +858,14 @@
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>29.5</v>
       </c>
       <c r="F11" s="27">
-        <v>3.8150000000000261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3.8150000000000301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -861,14 +876,14 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>0.45</v>
       </c>
       <c r="F12" s="27">
-        <v>20.995000000000019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>20.995000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -879,14 +894,14 @@
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>19.600000000000001</v>
       </c>
       <c r="F13" s="27">
-        <v>3.3450000000000131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6.3450000000000104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -897,14 +912,14 @@
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <v>20.100000000000001</v>
       </c>
       <c r="F14" s="27">
-        <v>7.0950000000000131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7.0950000000000104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -915,14 +930,14 @@
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>30.8</v>
       </c>
       <c r="F15" s="27">
-        <v>3.555000000000021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3.5550000000000201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -933,14 +948,14 @@
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>4.9000000000000004</v>
       </c>
       <c r="F16" s="27">
-        <v>13.625000000000014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -951,14 +966,14 @@
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>25.4</v>
       </c>
       <c r="F17" s="27">
-        <v>5.7650000000000148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4.7650000000000201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -969,14 +984,14 @@
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>11.2</v>
       </c>
       <c r="F18" s="27">
-        <v>5.8750000000000142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5.8750000000000098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -987,14 +1002,14 @@
       <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <v>8.5</v>
       </c>
       <c r="F19" s="27">
-        <v>8.9750000000000227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.9750000000000192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1005,14 +1020,14 @@
       <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="2">
         <v>15.4</v>
       </c>
       <c r="F20" s="27">
-        <v>4.9350000000000165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4.93500000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1023,14 +1038,14 @@
       <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="2">
         <v>9.4</v>
       </c>
       <c r="F21" s="27">
-        <v>6.2650000000000148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6.2650000000000201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -1041,14 +1056,14 @@
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="2">
         <v>6.5</v>
       </c>
       <c r="F22" s="27">
-        <v>7.285000000000025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7.2850000000000303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -1059,14 +1074,14 @@
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="2">
         <v>9.1</v>
       </c>
       <c r="F23" s="27">
-        <v>12.185000000000016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12.185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
@@ -1077,14 +1092,14 @@
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="2">
         <v>3.4</v>
       </c>
       <c r="F24" s="27">
-        <v>15.115000000000023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15.115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -1095,11 +1110,11 @@
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="2">
         <v>30.5</v>
       </c>
       <c r="F25" s="27">
-        <v>1.4750000000000227</v>
+        <v>1.4750000000000201</v>
       </c>
     </row>
   </sheetData>
@@ -1108,86 +1123,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>170</v>
       </c>
@@ -1198,1363 +1213,1363 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="5">
         <f>34.941*5</f>
         <v>174.70500000000001</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="6">
         <f>35.344*5</f>
         <v>176.72</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="5">
         <f>35.453*5</f>
         <v>177.26500000000001</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="6">
         <f>5*33.915</f>
         <v>169.57499999999999</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="6">
         <f>42.275*4</f>
         <v>169.1</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="6">
         <f>41.999*4</f>
         <v>167.99600000000001</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="6">
         <f>40.705*4</f>
         <v>162.82</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <f>38.739*4</f>
         <v>154.95599999999999</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <f>36.752*4</f>
         <v>147.00800000000001</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5">
         <f>32.88*4</f>
         <v>131.52000000000001</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <f>31.182*4</f>
         <v>124.72799999999999</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="5">
         <f>29.707*4</f>
         <v>118.828</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="5">
         <f>26.218*4</f>
         <v>104.872</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>30.3*5</f>
         <v>151.5</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <f>31.68*5</f>
         <v>158.4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>30.311*5</f>
         <v>151.55500000000001</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>5*28.836</f>
         <v>144.18</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>32.585*4</f>
         <v>130.34</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>31.313*4</f>
         <v>125.252</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>28.975*4</f>
         <v>115.9</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>26.063*4</f>
         <v>104.252</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>24.68*4</f>
         <v>98.72</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
         <f>21.581*4</f>
         <v>86.323999999999998</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>86</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <f>21.791*4</f>
         <v>87.164000000000001</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <f>21.61*4</f>
         <v>86.44</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>38.168*5</f>
         <v>190.84</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f>37.119*5</f>
         <v>185.595</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>37.135*5</f>
         <v>185.67499999999998</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>5*36.167</f>
         <v>180.83500000000001</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>44.559*4</f>
         <v>178.23599999999999</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>46.17*4</f>
         <v>184.68</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>43.937*4</f>
         <v>175.74799999999999</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f>42.696*4</f>
         <v>170.78399999999999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>41.828*4</f>
         <v>167.31200000000001</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
         <f>38.752*4</f>
         <v>155.00800000000001</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f>36.487*4</f>
         <v>145.94800000000001</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <f>39.184*4</f>
         <v>156.73599999999999</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <f>39.605*4</f>
         <v>158.41999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>38.051*5</f>
         <v>190.255</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f>36.867*5</f>
         <v>184.33499999999998</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>37.956*5</f>
         <v>189.78000000000003</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>5*36.649</f>
         <v>183.245</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>45.446*4</f>
         <v>181.78399999999999</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>46.859*4</f>
         <v>187.43600000000001</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>44.682*4</f>
         <v>178.72800000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f>43.123*4</f>
         <v>172.49199999999999</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f>42.032*4</f>
         <v>168.12799999999999</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
         <v>160</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>35.636*4</f>
         <v>142.54400000000001</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <f>37.705*4</f>
         <v>150.82</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <f>37.829*4</f>
         <v>151.316</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>37.342*5</f>
         <v>186.70999999999998</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f>36.139*5</f>
         <v>180.69500000000002</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>36.962*5</f>
         <v>184.81</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f>5*34.137</f>
         <v>170.685</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>35.423*4</f>
         <v>141.69200000000001</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f>30.359*4</f>
         <v>121.43600000000001</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f>28.165*4</f>
         <v>112.66</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f>25.872*4</f>
         <v>103.488</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f>25.34*4</f>
         <v>101.36</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
         <f>21.899*4</f>
         <v>87.596000000000004</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>87</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <f>21.001*4</f>
         <v>84.004000000000005</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>37.054*5</f>
         <v>185.27</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>35.582*5</f>
         <v>177.91</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>36.966*5</f>
         <v>184.83</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f>5*33.719</f>
         <v>168.595</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>40.983*4</f>
         <v>163.93199999999999</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>158</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f>32.53*4</f>
         <v>130.12</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f>21.553*4</f>
         <v>86.212000000000003</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>19.903*4</f>
         <v>79.611999999999995</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
         <v>72</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>73</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <f>15.514*4</f>
         <v>62.055999999999997</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>14.738*5</f>
         <v>73.69</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>50</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>7.27*5</f>
         <v>36.349999999999994</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f>6.906*5</f>
         <v>34.53</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f>7.702*4</f>
         <v>30.808</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>7.567*4</f>
         <v>30.268000000000001</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>5.675*4</f>
         <v>22.7</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f>4.006*4</f>
         <v>16.024000000000001</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>3.508*4</f>
         <v>14.032</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
         <f>2.849*4</f>
         <v>11.396000000000001</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>10</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>5</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>39.99*5</f>
         <v>199.95000000000002</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f>34.591*5</f>
         <v>172.95500000000001</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f>22.523*5</f>
         <v>112.61499999999999</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f>10.249*5</f>
         <v>51.245000000000005</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f>10.547*4</f>
         <v>42.188000000000002</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f>10.618*4</f>
         <v>42.472000000000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f>7.779*4</f>
         <v>31.116</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f>2.725*4</f>
         <v>10.9</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f>0.039*4</f>
         <v>0.156</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>39.473*5</f>
         <v>197.36500000000001</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f>38.541*5</f>
         <v>192.70499999999998</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>39.267*5</f>
         <v>196.33500000000001</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f>5*36.947</f>
         <v>184.73500000000001</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f>38.59*4</f>
         <v>154.36000000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f>35.23*4</f>
         <v>140.91999999999999</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f>34.451*4</f>
         <v>137.804</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f>32.454*4</f>
         <v>129.816</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f>31.331*4</f>
         <v>125.324</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
         <f>29.585*4</f>
         <v>118.34</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <f>30.682*4</f>
         <v>122.72799999999999</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <f>30.467*4</f>
         <v>121.86799999999999</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <f>30.465*4</f>
         <v>121.86</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>40.286*5</f>
         <v>201.43</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f>40.433*5</f>
         <v>202.16499999999999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>41.539*5</f>
         <v>207.69499999999999</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f>5*38.375</f>
         <v>191.875</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>70</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f>13.355*4</f>
         <v>53.42</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f>13.265*4</f>
         <v>53.06</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f>11.307*4</f>
         <v>45.228000000000002</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f>10.545*4</f>
         <v>42.18</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <v>37</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>38</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <f>8.353*4</f>
         <v>33.411999999999999</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <f>7.3*4</f>
         <v>29.2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>32.395*5</f>
         <v>161.97500000000002</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f>29.16*5</f>
         <v>145.80000000000001</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>29.419*5</f>
         <v>147.095</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f>5*28.618</f>
         <v>143.09</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f>34.548*4</f>
         <v>138.19200000000001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f>36.213*4</f>
         <v>144.852</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f>36.04*4</f>
         <v>144.16</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <f>35.244*4</f>
         <v>140.976</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f>32.257*4</f>
         <v>129.02799999999999</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
         <f>30.411*4</f>
         <v>121.64400000000001</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <f>31.505*4</f>
         <v>126.02</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <f>31.875*4</f>
         <v>127.5</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>39.738*5</f>
         <v>198.69</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f>38.878*5</f>
         <v>194.39</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>39.837*5</f>
         <v>199.185</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f>5*37.76</f>
         <v>188.79999999999998</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f>42.934*4</f>
         <v>171.73599999999999</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f>42.866*4</f>
         <v>171.464</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>167</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>165</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f>39.815*4</f>
         <v>159.26</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
         <f>38.427*4</f>
         <v>153.708</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <f>35.809*4</f>
         <v>143.23599999999999</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <f>38.689*4</f>
         <v>154.756</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <f>38.907*4</f>
         <v>155.62799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>38.163*5</f>
         <v>190.815</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f>37.632*5</f>
         <v>188.16</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>37.027*5</f>
         <v>185.13499999999999</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f>5*32.84</f>
         <v>164.20000000000002</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f>32.766*4</f>
         <v>131.06399999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f>33.823*4</f>
         <v>135.292</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>130</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f>30.936*4</f>
         <v>123.744</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f>29.667*4</f>
         <v>118.66800000000001</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
         <f>27.487*4</f>
         <v>109.94799999999999</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <f>28.723*4</f>
         <v>114.892</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <f>27.062*4</f>
         <v>108.248</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>38.477*5</f>
         <v>192.38499999999999</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>37.636*5</f>
         <v>188.18</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>38.543*5</f>
         <v>192.715</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f>5*35.91</f>
         <v>179.54999999999998</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f>42.601*4</f>
         <v>170.404</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f>42.454*4</f>
         <v>169.816</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f>40.294*4</f>
         <v>161.17599999999999</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f>34.393*4</f>
         <v>137.572</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>124</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
         <f>26.898*4</f>
         <v>107.592</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <f>28.19*4</f>
         <v>112.76</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <f>27.605*4</f>
         <v>110.42</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>37.926*5</f>
         <v>189.63</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>36.582*5</f>
         <v>182.91</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>35.989*5</f>
         <v>179.94499999999999</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f>5*34.047</f>
         <v>170.23499999999999</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f>38.197*4</f>
         <v>152.78800000000001</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>36.619*4</f>
         <v>146.476</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f>37.217*4</f>
         <v>148.86799999999999</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f>37.473*4</f>
         <v>149.892</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f>36.989*4</f>
         <v>147.95599999999999</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
         <f>35.374*4</f>
         <v>141.49600000000001</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <f>33.948*4</f>
         <v>135.792</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <f>35.763*4</f>
         <v>143.05199999999999</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <f>36.619*4</f>
         <v>146.476</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>40.787*5</f>
         <v>203.935</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>39.497*5</f>
         <v>197.48500000000001</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>40.617*5</f>
         <v>203.08499999999998</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f>5*37.403</f>
         <v>187.01499999999999</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f>44.352*4</f>
         <v>177.40799999999999</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f>44.529*4</f>
         <v>178.11600000000001</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f>37.581*4</f>
         <v>150.32400000000001</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f>36.956*4</f>
         <v>147.82400000000001</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f>35.952*4</f>
         <v>143.80799999999999</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
         <v>138</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <f>34.469*4</f>
         <v>137.876</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>139</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>41.464*5</f>
         <v>207.32</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>39.711*5</f>
         <v>198.55500000000001</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>41.28*5</f>
         <v>206.4</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f>5*39.391</f>
         <v>196.95499999999998</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f>47.235*4</f>
         <v>188.94</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>44.866*4</f>
         <v>179.464</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>120</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f>18.924*4</f>
         <v>75.695999999999998</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f>18.037*4</f>
         <v>72.147999999999996</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
         <v>65</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>66</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <f>16.205*4</f>
         <v>64.819999999999993</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <f>16.054*4</f>
         <v>64.215999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f>35.706*5</f>
         <v>178.53000000000003</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>34.047*5</f>
         <v>170.23499999999999</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>33.118*5</f>
         <v>165.59</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f>5*23.696</f>
         <v>118.48</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f>28.561*4</f>
         <v>114.244</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f>30.231*4</f>
         <v>120.92400000000001</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f>28.909*4</f>
         <v>115.636</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f>26.993*4</f>
         <v>107.97199999999999</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f>25.179*4</f>
         <v>100.71599999999999</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
         <f>21.769*4</f>
         <v>87.075999999999993</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>82</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <f>19.849*4</f>
         <v>79.396000000000001</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <f>18.231*4</f>
         <v>72.924000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f>42.273*5</f>
         <v>211.36500000000001</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>38.869*5</f>
         <v>194.345</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <f>42.286*5</f>
         <v>211.43</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f>5*38.793</f>
         <v>193.965</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f>45.357*4</f>
         <v>181.428</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f>46.306*4</f>
         <v>185.22399999999999</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f>42.853*4</f>
         <v>171.41200000000001</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <f>35.976*4</f>
         <v>143.904</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f>27.805*4</f>
         <v>111.22</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
         <f>16.819*4</f>
         <v>67.275999999999996</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>62</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <f>13.832*4</f>
         <v>55.328000000000003</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <f>34.658*5</f>
         <v>173.29000000000002</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>33.185*5</f>
         <v>165.92500000000001</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f>32.679*5</f>
         <v>163.39500000000001</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f>5*27.27</f>
         <v>136.35</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f>32.509*4</f>
         <v>130.036</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <f>32.832*4</f>
         <v>131.328</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <f>33.146*4</f>
         <v>132.584</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <f>30.6*4</f>
         <v>122.4</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f>29.236*4</f>
         <v>116.944</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
         <f>26.62*4</f>
         <v>106.48</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <f>28.272*4</f>
         <v>113.08799999999999</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <f>26.793*4</f>
         <v>107.172</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <f>26.737*4</f>
         <v>106.94799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>36.36*5</f>
         <v>181.8</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>33.621*5</f>
         <v>168.10500000000002</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>36.265*5</f>
         <v>181.32499999999999</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f>5*33.867</f>
         <v>169.33499999999998</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f>31.034*5</f>
         <v>155.16999999999999</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f>40.032*4</f>
         <v>160.12799999999999</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f>39.921*4</f>
         <v>159.684</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <f>37.933*4</f>
         <v>151.732</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f>35.599*4</f>
         <v>142.39599999999999</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
         <f>33.934*4</f>
         <v>135.73599999999999</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <f>33.087*4</f>
         <v>132.34800000000001</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <f>34.401*4</f>
         <v>137.60400000000001</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <f>34.712*4</f>
         <v>138.84800000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>38.79*5</f>
         <v>193.95</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>36.383*5</f>
         <v>181.91500000000002</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>38.399*5</f>
         <v>191.995</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f>5*37.021</f>
         <v>185.10500000000002</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f>33.425*5</f>
         <v>167.125</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <f>40.944*4</f>
         <v>163.77600000000001</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f>34.977*4</f>
         <v>139.90799999999999</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <f>22.676*4</f>
         <v>90.703999999999994</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f>15.432*4</f>
         <v>61.728000000000002</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
         <v>56</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>56</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <f>14.345*4</f>
         <v>57.38</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <f>14.299*4</f>
         <v>57.195999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>35.355*5</f>
         <v>176.77499999999998</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>33.465*5</f>
         <v>167.32500000000002</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>35.31*5</f>
         <v>176.55</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f>5*34.126</f>
         <v>170.63</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f>32.47*5</f>
         <v>162.35</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <f>41.248*4</f>
         <v>164.99199999999999</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f>42.185*4</f>
         <v>168.74</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <f>40.326*4</f>
         <v>161.304</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f>38.356*4</f>
         <v>153.42400000000001</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
         <f>37.894*4</f>
         <v>151.57599999999999</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <f>36.152*4</f>
         <v>144.608</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <f>40.041*4</f>
         <v>160.16399999999999</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <f>40.035*4</f>
         <v>160.13999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <f>36.304*5</f>
         <v>181.52</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <f>34.525*5</f>
         <v>172.625</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f>35.942*5</f>
         <v>179.71</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <f>5*34.282</f>
         <v>171.40999999999997</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f>30.796*5</f>
         <v>153.97999999999999</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <f>36.729*4</f>
         <v>146.916</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <f>29.307*4</f>
         <v>117.22799999999999</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f>18.516*4</f>
         <v>74.063999999999993</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f>8.2*4</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
         <v>6</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>0</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>0</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2564,1066 +2579,1066 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="8">
         <v>10.024394707585699</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>6.4359555496888596</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8">
         <v>5.87</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>4.9678999645177004</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>4.3596771595598502</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8">
         <v>5.0567466137691097</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>3.3532935543814202</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>8.4915815927918104</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="8">
         <v>5.9795990238820202</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="8">
         <v>4.1470439089999998</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>11.3410595546338</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>4.96</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>6.6619978022655202</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>5.08</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
         <v>5.5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>2.7095085127900802</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>3.7960346086218801</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
         <v>5.1956129070763204</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>3.78917889794179</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>7.7914486291497296</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>7.0847076126583399</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <v>5.2346558419999996</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>8.0086674868742502</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>6.6795195109730097</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>4.79</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
         <v>5.72</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>2.1452429999999998</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>3.2113733717254598</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
         <v>5.2463378893522901</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>3.44628198439732</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>7.9036579715235504</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>6.87060911691405</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>4.9396747569999997</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>8.3092095523029599</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>7.2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>8.8818822981304493</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>7.12</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
         <v>7.35</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>6</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>5.27739058290366</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
         <v>6.4021374105368301</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>4.6659696969439803</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>8.93529620932072</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>7.7843226262642098</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>5.3101152809999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>16.277277413358998</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>16.100000000000001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>14.148407315354801</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>14.63</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>11.6</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>11</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>5.1843705023509203</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>6.9838686456543</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8">
         <v>9.17368351858061</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>7.7609185405154699</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>15.525531385662401</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>10.4471561675081</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>13.9971784435131</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>20.7</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>19.4021742984086</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>18.2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>19.7</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>18.600000000000001</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>9.9076699750806299</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>7.1856480308554698</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>7.8406419066856898</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>7.8406419066856898</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>13.4289680939858</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>12.161396096134</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>19.358082344819699</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>6.6</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>6.3635792929894297</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
         <v>6.28</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>2.3988711701254202</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>3.1293150546746502</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8">
         <v>4.6852070321960699</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>2.9161116256331301</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>6.5138480742666998</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>4.3044960890836199</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>18.244566691448298</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>19</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>9.7080888623762096</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>5.13</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
         <v>5.28</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>3.8324688691447801</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>3.5303789241420902</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
         <v>6.1569539879615602</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>5.8</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>5.2</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>4.8634027201596304</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>11.9934117263725</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>10.91</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>11.645855532675499</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>9.5399999999999991</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
         <v>6.4</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>3.9916475311256101</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>4.48090200361617</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8">
         <v>6.4535088131266498</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>4.0038801067521703</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>8.0126392777815596</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>8.0339282091572208</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>6.1290179949999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>17.778009134467801</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>17.8039437580038</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>13.99</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>7.39</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>8.09</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>5.5659581493165096</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>6.4453801644162096</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>13.1</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>6.2355691813595397</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>6.2355691813595397</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>10.6983302387947</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>11.113178044759501</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>8.3073814939999995</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>12.369356966486301</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>15</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>6.6483223222986902</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>5.46</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <v>6.09</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>3.4773214511633999</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>3.7227255332058098</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8">
         <v>5.8194085099527699</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>4.8973270385530601</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>7.7681155420082</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <v>6.6791150400330102</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <v>5.3422694460000004</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>9.6149539395690695</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>7.49</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>9.4850381210422992</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>7.43</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <v>6</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>3.8392556658893899</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>4.9268057364616498</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8">
         <v>6.7905599697189603</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>5.40808186527246</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>9</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>7.9674019194808201</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <v>6.3040434730000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>13.2947818118211</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>11.3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>12.4286241326517</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>9.81</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>8.4</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>9.15</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>5.5909279056727099</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>8.0010021624178709</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8">
         <v>8.6569275147347806</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>7.6560613691639796</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>16.1562021385074</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <v>10.657459760815501</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="8">
         <v>9.6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>17</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>14.2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>14.1136386285641</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>12.74</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>14.4</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>14.3</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>9.8155674875923395</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>8.2525770361417496</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
         <v>8.7627503225863492</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>9.8791730340666195</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>16.877144767553599</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <v>10.981775422987999</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>7.7937454968791302</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>10.486187041738701</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>9.39</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
         <v>8.98</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>6.8689100110021704</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>7.7559892199200302</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8">
         <v>9.4606180884864699</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>9.2253616416130804</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>12.605503098309899</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>10.6181247720783</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="8">
         <v>9.1385540350000003</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>11.4698108577777</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>10.5874405396181</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>8.5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>9.7200000000000006</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>5.7215454646866499</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>7.6782713469614503</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10">
+      <c r="J16" s="8"/>
+      <c r="K16" s="9">
         <v>8.8605879383255299</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>8.2024556656642194</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>12.27571710426</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <v>10.814931712370999</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>18</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>17.3</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>15.841806467929301</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>14</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
         <v>14.29</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>11.4</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>5.0279346661381901</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>7.7</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>6.8</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>6.2128290719098098</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>8.8828406224386498</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <v>8.5191147355025407</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="8">
         <v>6.546011687</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>13.499792796299801</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>13.1</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>11.733128294338799</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>6.048</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>5.71</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>6.87</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>4.1347641074775296</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>4.6373630512874104</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10">
+      <c r="J18" s="8"/>
+      <c r="K18" s="9">
         <v>7.0179858460252103</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>4.3427875274107404</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>10.0241268261264</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>8.0920727143208193</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="8">
         <v>5.5264251199999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>21.1</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>19.600000000000001</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>21.628291306248101</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>19.78</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>22.3</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>22.21</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>20.1953713911454</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>10.5446391073675</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10">
+      <c r="J19" s="8"/>
+      <c r="K19" s="9">
         <v>7.2506591342910403</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>5.33414326378682</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>8.1026032408354993</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>10.398746412073899</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>11.8842377180758</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>9.98</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>10.888606355137499</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>6.36</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>6.13</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>6.8</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>3.5758431172392902</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>5.1061310132486701</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10">
+      <c r="J20" s="8"/>
+      <c r="K20" s="9">
         <v>6.7204423780271503</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>5.6337874252931597</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>10.7379438559117</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>9.3905563316208198</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="8">
         <v>6.3000016480000003</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>10.144427996618001</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>10</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>9.64929650876884</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>7.66</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
         <v>7.5</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>4.5382108956247</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>6.0261001004514396</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10">
+      <c r="J21" s="8"/>
+      <c r="K21" s="9">
         <v>7.88354264628589</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>6.4867077585279498</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>8.5341074598828293</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>8.8967570267013301</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <v>8.8079182750000005</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>18.585580659204801</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>19.89</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>18.3444495171337</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>16.190000000000001</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
         <v>16.79</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>10.6439808652311</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>6.4833505060419698</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>11.2</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>9</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>8.4967140117745803</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>10.114511837369401</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <v>9.02116382832833</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="8">
         <v>9.6023174220000005</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>10.004572696552801</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>7.35</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>9.0566720264564395</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>8.8699999999999992</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
         <v>8.2899999999999991</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>5.7948994261679498</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>7.2989438746803197</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10">
+      <c r="J23" s="8"/>
+      <c r="K23" s="9">
         <v>8.1484989255204603</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>6.5252396106510897</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>12.020281202921201</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <v>10.4474201607211</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="8">
         <v>9.2180913869999994</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>27.2917808308272</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>29.59</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>23.768136498020102</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>23.11</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>26.35</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>25.6</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>22.0775100750304</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>16.347856697929799</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>18.899999999999999</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3631,1014 +3646,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="6">
         <v>20</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <f>3.936*5</f>
         <v>19.68</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="10">
         <f>4.007*5</f>
         <v>20.034999999999997</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="10">
         <f>3.865*5</f>
         <v>19.325000000000003</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="10">
         <f>4.939*4</f>
         <v>19.756</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="10">
         <v>20</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="10">
         <f>5.113*4</f>
         <v>20.452000000000002</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="10">
         <f>4.798*4</f>
         <v>19.192</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <f>5.97*5</f>
         <v>29.849999999999998</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <f>6.673*5</f>
         <v>33.365000000000002</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <f>6.531*5</f>
         <v>32.655000000000001</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>6.5*5</f>
         <v>32.5</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <f>8.338*4</f>
         <v>33.351999999999997</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <f>9.335*4</f>
         <v>37.340000000000003</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <f>9.01*4</f>
         <v>36.04</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <f>8.474*4</f>
         <v>33.896000000000001</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <f>6.49*5</f>
         <v>32.450000000000003</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f>7.049*5</f>
         <v>35.245000000000005</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>7.041*5</f>
         <v>35.204999999999998</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>7.038*5</f>
         <v>35.19</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>8.886*4</f>
         <v>35.543999999999997</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>9.944*4</f>
         <v>39.776000000000003</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f>9.825*4</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f>9.296*4</f>
         <v>37.183999999999997</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <f>5.37*5</f>
         <v>26.85</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f>5.653*5</f>
         <v>28.264999999999997</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f>5.837*5</f>
         <v>29.184999999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f>5.77*5</f>
         <v>28.849999999999998</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>7.271*4</f>
         <v>29.084</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f>8.098*4</f>
         <v>32.392000000000003</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <f>7.959*4</f>
         <v>31.835999999999999</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f>7.529*4</f>
         <v>30.116</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <f>4.71*5</f>
         <v>23.55</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f>4.872*5</f>
         <v>24.36</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f>5.128*5</f>
         <v>25.64</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f>5.324*5</f>
         <v>26.619999999999997</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>6.901*4</f>
         <v>27.603999999999999</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>8.221*4</f>
         <v>32.884</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f>8.358*4</f>
         <v>33.432000000000002</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f>8.295*4</f>
         <v>33.18</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>4.22*5</f>
         <v>21.099999999999998</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>4.203*5</f>
         <v>21.015000000000001</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f>4.56*5</f>
         <v>22.799999999999997</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f>4.469*5</f>
         <v>22.345000000000002</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>6.104*4</f>
         <v>24.416</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>25</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <f>7.204*4</f>
         <v>28.815999999999999</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <f>7.225*4</f>
         <v>28.9</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <f>5.83*5</f>
         <v>29.15</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>30</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>30</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f>6.234*5</f>
         <v>31.17</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>7.637*4</f>
         <v>30.547999999999998</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>31</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>32</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f>7.703*4</f>
         <v>30.812000000000001</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f>3.83*5</f>
         <v>19.149999999999999</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>3.89*5</f>
         <v>19.45</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>3.817*5</f>
         <v>19.085000000000001</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f>4.102*5</f>
         <v>20.51</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>4.674*4</f>
         <v>18.696000000000002</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>19</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <f>5.021*4</f>
         <v>20.084</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <f>4.729*4</f>
         <v>18.916</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <f>5.72*5</f>
         <v>28.599999999999998</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f>6.088*5</f>
         <v>30.44</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>6.168*5</f>
         <v>30.84</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>6.154*5</f>
         <v>30.77</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>7.771*4</f>
         <v>31.084</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>32</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f>8.569*4</f>
         <v>34.276000000000003</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f>8.081*4</f>
         <v>32.323999999999998</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f>6.14*5</f>
         <v>30.7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <f>6.697*5</f>
         <v>33.484999999999999</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f>6.947*5</f>
         <v>34.734999999999999</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f>7.026*5</f>
         <v>35.129999999999995</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>8.804*4</f>
         <v>35.216000000000001</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>37</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <f>10.144*4</f>
         <v>40.576000000000001</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>40</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f>12.64*5</f>
         <v>63.2</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <f>13.845*5</f>
         <v>69.225000000000009</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <f>14.112*5</f>
         <v>70.56</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f>13.888*5</f>
         <v>69.44</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <f>17.255*4</f>
         <v>69.02</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <f>18.85*4</f>
         <v>75.400000000000006</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <f>19.594*4</f>
         <v>78.376000000000005</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <f>18.921*4</f>
         <v>75.683999999999997</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <f>6.95*5</f>
         <v>34.75</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f>7.496*5</f>
         <v>37.480000000000004</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f>7.922*5</f>
         <v>39.61</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f>7.822*5</f>
         <v>39.11</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f>9.962*4</f>
         <v>39.847999999999999</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f>10.589*4</f>
         <v>42.356000000000002</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f>11.249*4</f>
         <v>44.996000000000002</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f>10.39*4</f>
         <v>41.56</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <f>5.842*5</f>
         <v>29.209999999999997</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <f>6.741*5</f>
         <v>33.704999999999998</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f>6.684*5</f>
         <v>33.42</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f>6.72*5</f>
         <v>33.6</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f>8.56*4</f>
         <v>34.24</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <f>9.573*4</f>
         <v>38.292000000000002</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <f>10.512*4</f>
         <v>42.048000000000002</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>42</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <f>3.738*5</f>
         <v>18.690000000000001</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <f>3.778*5</f>
         <v>18.89</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <f>4.072*5</f>
         <v>20.36</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f>5.147*5</f>
         <v>25.734999999999999</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f>6.624*4</f>
         <v>26.495999999999999</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <f>7.463*4</f>
         <v>29.852</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <f>8.005*4</f>
         <v>32.020000000000003</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>32</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <f>3.712*5</f>
         <v>18.560000000000002</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <f>4.392*5</f>
         <v>21.96</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <f>4.371*5</f>
         <v>21.855000000000004</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f>5.696*5</f>
         <v>28.479999999999997</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <f>7.409*4</f>
         <v>29.635999999999999</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <f>7.836*4</f>
         <v>31.344000000000001</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>32</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <f>8.357*4</f>
         <v>33.427999999999997</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <f>5.695*5</f>
         <v>28.475000000000001</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <f>6.283*5</f>
         <v>31.415000000000003</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <f>7.074*5</f>
         <v>35.369999999999997</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f>7.936*5</f>
         <v>39.68</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <f>10.123*4</f>
         <v>40.491999999999997</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <f>11.307*4</f>
         <v>45.228000000000002</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>46</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <f>11.843*4</f>
         <v>47.372</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <f>8.065*5</f>
         <v>40.324999999999996</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <f>8.681*5</f>
         <v>43.404999999999994</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <f>9.351*5</f>
         <v>46.755000000000003</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <f>10.512*5</f>
         <v>52.56</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <f>13.272*4</f>
         <v>53.088000000000001</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <f>13.785*4</f>
         <v>55.14</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>55</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <f>14.086*4</f>
         <v>56.344000000000001</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <f>6.307*5</f>
         <v>31.535000000000004</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <f>6.342*5</f>
         <v>31.709999999999997</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <f>6.881*5</f>
         <v>34.405000000000001</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f>6.834*5</f>
         <v>34.17</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <f>8.654*4</f>
         <v>34.616</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <f>9.685*4</f>
         <v>38.74</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <f>9.534*4</f>
         <v>38.136000000000003</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>38</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <f>6.446*5</f>
         <v>32.229999999999997</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <f>6.756*5</f>
         <v>33.78</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <f>7.208*5</f>
         <v>36.04</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>36</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>37</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <f>9.628*4</f>
         <v>38.512</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <f>10.02*4</f>
         <v>40.08</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>39</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <f>4.356*5</f>
         <v>21.78</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <f>4.398*5</f>
         <v>21.99</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <f>4.55*5</f>
         <v>22.75</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>24</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>25</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <f>6.318*4</f>
         <v>25.271999999999998</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <f>6.61*4</f>
         <v>26.44</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f>6.28*4</f>
         <v>25.12</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f>4*5</f>
         <v>20</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <f>4.182*5</f>
         <v>20.910000000000004</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <f>4.166*5</f>
         <v>20.830000000000002</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f>4.272*5</f>
         <v>21.36</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>22</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <f>5.974*4</f>
         <v>23.896000000000001</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <f>6.296*4</f>
         <v>25.184000000000001</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <f>6.062*4</f>
         <v>24.248000000000001</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <f>4.143*5</f>
         <v>20.715</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <f>4.258*5</f>
         <v>21.29</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <f>4.259*5</f>
         <v>21.295000000000002</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f>4.331*5</f>
         <v>21.655000000000001</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>23</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <f>5.992*4</f>
         <v>23.968</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <f>6.263*4</f>
         <v>25.052</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <f>6.019*4</f>
         <v>24.076000000000001</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <f>3.82*5</f>
         <v>19.099999999999998</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <f>3.675*5</f>
         <v>18.375</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <f>3.898*5</f>
         <v>19.490000000000002</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f>3.953*5</f>
         <v>19.765000000000001</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>21</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <f>5.373*4</f>
         <v>21.492000000000001</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>22</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <f>5.288*4</f>
         <v>21.152000000000001</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <f>3.45*5</f>
         <v>17.25</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <f>3.564*5</f>
         <v>17.82</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <f>3.974*5</f>
         <v>19.87</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <f>4.145*5</f>
         <v>20.724999999999998</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>23</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <f>6.226*4</f>
         <v>24.904</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <f>6.859*4</f>
         <v>27.436</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <f>6.794*4</f>
         <v>27.175999999999998</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -4651,41 +4666,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="8">
         <v>0</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="19">
         <v>0</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="19">
         <v>0</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="19">
         <v>0</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="19">
         <v>0</v>
       </c>
-      <c r="G1" s="20">
+      <c r="G1" s="19">
         <v>0</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>0</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="19">
         <v>0</v>
       </c>
       <c r="J1" s="1"/>
@@ -4695,38 +4710,38 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <f>5*1.58</f>
         <v>7.9</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <f>5*1.41</f>
         <v>7.05</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <f>5*1.34</f>
         <v>6.7</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <f>5*1.32</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>6.7</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <f>1.368*5</f>
         <v>6.8400000000000007</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="20">
         <f>1.468*5</f>
         <v>7.34</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>7.5249999999999995</v>
       </c>
       <c r="J2" s="1"/>
@@ -4736,36 +4751,36 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <f>5*2.15</f>
         <v>10.75</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>10.7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <f>5*2.18</f>
         <v>10.9</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>11.6</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>11.2</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <f>2.121*5</f>
         <v>10.605</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <f>2.269*5</f>
         <v>11.345000000000001</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>11.21</v>
       </c>
       <c r="J3" s="1"/>
@@ -4775,38 +4790,38 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <f>5*2.7</f>
         <v>13.5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <f>5*2.79</f>
         <v>13.95</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <f>5*2.74</f>
         <v>13.700000000000001</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <f>5*2.664</f>
         <v>13.32</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>13.2</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <f>2.688*5</f>
         <v>13.440000000000001</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <f>2.8*5</f>
         <v>14</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>13.5</v>
       </c>
       <c r="J4" s="1"/>
@@ -4816,39 +4831,39 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <f>5*2.5</f>
         <v>12.5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>5*2.54</f>
         <v>12.7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f>5*2.47</f>
         <v>12.350000000000001</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <f>5*2.419</f>
         <v>12.095000000000001</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>2.34*5</f>
         <v>11.7</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <f>2.391*5</f>
         <v>11.955</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <f>2.459*5</f>
         <v>12.295</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>12.515000000000001</v>
       </c>
       <c r="J5" s="1"/>
@@ -4858,39 +4873,39 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <f>5*2.26</f>
         <v>11.299999999999999</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f>5*2.33</f>
         <v>11.65</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f>5*2.32</f>
         <v>11.6</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <f>5*2.337</f>
         <v>11.685</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <f>2.207*5</f>
         <v>11.035</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <f>2.103*5</f>
         <v>10.515000000000001</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <f>2.28*5</f>
         <v>11.399999999999999</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>10.209999999999999</v>
       </c>
       <c r="J6" s="1"/>
@@ -4900,34 +4915,34 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <f>5*0.25</f>
         <v>1.25</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <f>5*0.156</f>
         <v>0.78</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>0.97500000000000009</v>
       </c>
       <c r="J7" s="1"/>
@@ -4937,38 +4952,38 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <f>5*0.57</f>
         <v>2.8499999999999996</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f>5*0.53</f>
         <v>2.6500000000000004</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f>5*0.41</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <f>5*0.364</f>
         <v>1.8199999999999998</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>1.6</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <f>0.337*5</f>
         <v>1.6850000000000001</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <f>0.394*5</f>
         <v>1.9700000000000002</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>2.2149999999999999</v>
       </c>
       <c r="J8" s="1"/>
@@ -4978,38 +4993,38 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <f>5*2.39</f>
         <v>11.950000000000001</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>5*2.48</f>
         <v>12.4</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f>5*2.45</f>
         <v>12.25</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <f>5*2.395</f>
         <v>11.975</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>12</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <f>2.266*5</f>
         <v>11.33</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f>2.394*5</f>
         <v>11.97</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>11.77</v>
       </c>
       <c r="J9" s="1"/>
@@ -5019,38 +5034,38 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <f>5*2.46</f>
         <v>12.3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>12.4</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f>5*2.5</f>
         <v>12.5</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <f>5*2.457</f>
         <v>12.285</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f>2.16*5</f>
         <v>10.8</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <f>2.246*5</f>
         <v>11.23</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <f>2.417*5</f>
         <v>12.084999999999999</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>11.9</v>
       </c>
       <c r="J10" s="1"/>
@@ -5060,38 +5075,38 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <f>5*1.1</f>
         <v>5.5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f>5*0.97</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f>5*0.93</f>
         <v>4.6500000000000004</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <f>5*0.894</f>
         <v>4.47</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>4.5</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <f>0.871*5</f>
         <v>4.3550000000000004</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <f>0.922*5</f>
         <v>4.6100000000000003</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>4.8549999999999995</v>
       </c>
       <c r="J11" s="1"/>
@@ -5101,38 +5116,38 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <f>5*2.34</f>
         <v>11.7</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f>5*2.41</f>
         <v>12.05</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f>5*2.42</f>
         <v>12.1</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <f>5*2.355</f>
         <v>11.775</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>11.5</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <f>2.259*5</f>
         <v>11.295</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <f>2.42*5</f>
         <v>12.1</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>12.509999999999998</v>
       </c>
       <c r="J12" s="1"/>
@@ -5142,39 +5157,39 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <f>5*2.6</f>
         <v>13</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f t="shared" ref="C13:D13" si="0">5*2.65</f>
         <v>13.25</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>13.25</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <f>5*2.583</f>
         <v>12.915000000000001</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f>2.52*5</f>
         <v>12.6</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <f>2.452*5</f>
         <v>12.26</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <f>2.644*5</f>
         <v>13.22</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>13.305</v>
       </c>
       <c r="J13" s="1"/>
@@ -5184,39 +5199,39 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <f>5*2.76</f>
         <v>13.799999999999999</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f>5*2.9</f>
         <v>14.5</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <f>5*2.92</f>
         <v>14.6</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <f>5*2.809</f>
         <v>14.045000000000002</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <f>2.783*5</f>
         <v>13.914999999999999</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <f>2.605*5</f>
         <v>13.025</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <f>2.887*5</f>
         <v>14.435</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>14</v>
       </c>
       <c r="J14" s="1"/>
@@ -5226,38 +5241,38 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <f>5*2.81</f>
         <v>14.05</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <f>5*3.14</f>
         <v>15.700000000000001</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <f>5*3.08</f>
         <v>15.4</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <f>5*3.095</f>
         <v>15.475000000000001</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>15.3</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <f>2.959*5</f>
         <v>14.795</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <f>2.953*5</f>
         <v>14.764999999999999</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>15.504999999999999</v>
       </c>
       <c r="J15" s="1"/>
@@ -5267,39 +5282,39 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <f>5*3.58</f>
         <v>17.899999999999999</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f>5*3.62</f>
         <v>18.100000000000001</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f>5*3.57</f>
         <v>17.849999999999998</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <f>5*3.522</f>
         <v>17.61</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <f>3.44*5</f>
         <v>17.2</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <f>3.407*5</f>
         <v>17.035</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <f>3.445*5</f>
         <v>17.224999999999998</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>16.645</v>
       </c>
       <c r="J16" s="1"/>
@@ -5309,38 +5324,38 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <f>5*3.06</f>
         <v>15.3</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <f>5*3.17</f>
         <v>15.85</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <f>5*3.21</f>
         <v>16.05</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <f>5*3.151</f>
         <v>15.754999999999999</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>15.2</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <f>3.015*5</f>
         <v>15.075000000000001</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <f>2.991*5</f>
         <v>14.955</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>14.984999999999999</v>
       </c>
       <c r="J17" s="1"/>
@@ -5350,39 +5365,39 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <f>5*2.3</f>
         <v>11.5</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <f>5*2.4</f>
         <v>12</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <f>5*2.37</f>
         <v>11.850000000000001</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <f>5*2.189</f>
         <v>10.945</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <f>2.128*5</f>
         <v>10.64</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <f>2.119*5</f>
         <v>10.595000000000001</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <f>2.314*5</f>
         <v>11.57</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>11.99</v>
       </c>
       <c r="J18" s="1"/>
@@ -5392,38 +5407,38 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <f>5*2.32</f>
         <v>11.6</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <f>5*2.57</f>
         <v>12.85</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>12.5</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <f>5*2.272</f>
         <v>11.36</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f>2.24*5</f>
         <v>11.200000000000001</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <f>2.228*5</f>
         <v>11.14</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <f>2.302*5</f>
         <v>11.51</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>10.975</v>
       </c>
       <c r="J19" s="1"/>
@@ -5433,38 +5448,38 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <f t="shared" ref="B20:B21" si="1">5*2</f>
         <v>10</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <f>5*2.08</f>
         <v>10.4</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>10.3</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <f>5*1.954</f>
         <v>9.77</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <f>1.954*5</f>
         <v>9.77</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <f>1.96*5</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <f>2.048*5</f>
         <v>10.24</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>10.67</v>
       </c>
       <c r="J20" s="1"/>
@@ -5474,38 +5489,38 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <f>5*2.1</f>
         <v>10.5</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <f>5*2.26</f>
         <v>11.299999999999999</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <f>5*2.023</f>
         <v>10.115</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <f>2.3*5</f>
         <v>11.5</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <f>2.108*5</f>
         <v>10.540000000000001</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>10.700000000000001</v>
       </c>
       <c r="J21" s="1"/>
@@ -5515,38 +5530,38 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <f>5*2.29</f>
         <v>11.45</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <f>5*2.3</f>
         <v>11.5</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <f>5*2.49</f>
         <v>12.450000000000001</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <f>5*2.329</f>
         <v>11.645000000000001</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>11.5</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <f>2.274*5</f>
         <v>11.370000000000001</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <f>2.333*5</f>
         <v>11.665000000000001</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>11.200000000000001</v>
       </c>
       <c r="J22" s="1"/>
@@ -5556,37 +5571,37 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <f>5*2.48</f>
         <v>12.4</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f>5*2.7</f>
         <v>13.5</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>13.1</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <f>5*2.641</f>
         <v>13.205</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>13.2</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <f>2.59*5</f>
         <v>12.95</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <f>2.68*5</f>
         <v>13.4</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>13.134999999999998</v>
       </c>
       <c r="J23" s="1"/>
@@ -5596,37 +5611,37 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>11.5</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <f>5*2.25</f>
         <v>11.25</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>11.6</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <f>5*2.247</f>
         <v>11.234999999999999</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <f>2.197*5</f>
         <v>10.984999999999999</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <f>2.21*5</f>
         <v>11.05</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <f>2.266*5</f>
         <v>11.33</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>10.620000000000001</v>
       </c>
       <c r="J24" s="1"/>
@@ -5642,35 +5657,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="A8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="22">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="24">
+      <c r="G1" s="23">
         <v>37.166699999999999</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="23">
         <v>2.9813000000000001</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="24">
+      <c r="K1" s="23">
         <v>0.19969999999999999</v>
       </c>
       <c r="L1" s="1"/>
@@ -5678,26 +5693,26 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>165.63030000000001</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <v>336.6773</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <v>353.8236</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="24">
+      <c r="K2" s="23">
         <v>545.62800000000004</v>
       </c>
       <c r="L2" s="1"/>
@@ -5705,26 +5720,26 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>30.4117</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>195.04560000000001</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>243.25530000000001</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="24">
+      <c r="K3" s="23">
         <v>561.06790000000001</v>
       </c>
       <c r="L3" s="1"/>
@@ -5732,26 +5747,26 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>44.482500000000002</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <v>72.940299999999993</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="24">
+      <c r="K4" s="23">
         <v>199.994</v>
       </c>
       <c r="L4" s="1"/>
@@ -5759,26 +5774,26 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>12.248100000000001</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>313.96629999999999</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>568.12</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="24">
+      <c r="K5" s="23">
         <v>840.97130000000004</v>
       </c>
       <c r="L5" s="1"/>
@@ -5786,26 +5801,26 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>313.3168</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>134.38910000000001</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <v>230.76400000000001</v>
       </c>
       <c r="L6" s="1"/>
@@ -5813,26 +5828,26 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>245.89510000000001</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>174.8467</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="24">
+      <c r="K7" s="23">
         <v>355.25779999999997</v>
       </c>
       <c r="L7" s="1"/>
@@ -5840,26 +5855,26 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>0</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>1107.5452</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <v>1264.8616999999999</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="24">
+      <c r="K8" s="23">
         <v>1189.5435</v>
       </c>
       <c r="L8" s="1"/>
@@ -5867,26 +5882,26 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>0</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>190.7508</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>373.17700000000002</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="24">
+      <c r="K9" s="23">
         <v>485.74509999999998</v>
       </c>
       <c r="L9" s="1"/>
@@ -5894,26 +5909,26 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>392.81349999999998</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>916.92110000000002</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="24">
+      <c r="K10" s="23">
         <v>1348.587</v>
       </c>
       <c r="L10" s="1"/>
@@ -5921,26 +5936,26 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>0</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>113.9217</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>111.4165</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="24">
+      <c r="K11" s="23">
         <v>156.47569999999999</v>
       </c>
       <c r="L11" s="1"/>
@@ -5948,26 +5963,26 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>35.697400000000002</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>498.90120000000002</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>580.04229999999995</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="24">
+      <c r="K12" s="23">
         <v>643.52049999999997</v>
       </c>
       <c r="L12" s="1"/>
@@ -5975,26 +5990,26 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>14.9194</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>442.69110000000001</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>901.70770000000005</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="24">
+      <c r="K13" s="23">
         <v>881.21220000000005</v>
       </c>
       <c r="L13" s="1"/>
@@ -6002,26 +6017,26 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>4.4951999999999996</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>0</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>243</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="24">
+      <c r="K14" s="23">
         <v>372.82139999999998</v>
       </c>
       <c r="L14" s="1"/>
@@ -6029,26 +6044,26 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>0</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>252.19059999999999</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>473.26150000000001</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="24">
+      <c r="K15" s="23">
         <v>514.8596</v>
       </c>
       <c r="L15" s="1"/>
@@ -6056,26 +6071,26 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>16.058499999999999</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <v>216.10740000000001</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>315.4853</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="24">
+      <c r="K16" s="23">
         <v>659.24680000000001</v>
       </c>
       <c r="L16" s="1"/>
@@ -6083,26 +6098,26 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>0</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>56.021900000000002</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>227.66200000000001</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="24">
+      <c r="K17" s="23">
         <v>970.30679999999995</v>
       </c>
       <c r="L17" s="1"/>
@@ -6110,26 +6125,26 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>19.234400000000001</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>240.84870000000001</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <v>411.6112</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="24">
+      <c r="K18" s="23">
         <v>693.58349999999996</v>
       </c>
       <c r="L18" s="1"/>
@@ -6137,26 +6152,26 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>6.5155000000000003</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>238</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <v>401</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="24">
+      <c r="K19" s="23">
         <v>560</v>
       </c>
       <c r="L19" s="1"/>
@@ -6164,26 +6179,26 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>70.665800000000004</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>869.8048</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <v>1137.9297999999999</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="24">
+      <c r="K20" s="23">
         <v>834.6662</v>
       </c>
       <c r="L20" s="1"/>
@@ -6191,26 +6206,26 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>16.5383</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>430.68700000000001</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>459.4896</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <v>572.8288</v>
       </c>
       <c r="L21" s="1"/>
@@ -6218,26 +6233,26 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>0.67969999999999997</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>0</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <v>232</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="24">
+      <c r="K22" s="23">
         <v>531.08010000000002</v>
       </c>
       <c r="L22" s="1"/>
@@ -6245,26 +6260,26 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>1.3188</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>6.3132999999999999</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="23">
         <v>48.409799999999997</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="24">
+      <c r="K23" s="23">
         <v>149.679</v>
       </c>
       <c r="L23" s="1"/>
@@ -6272,26 +6287,26 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>29.225300000000001</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>134.8603</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="23">
         <v>247.27289999999999</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="24">
+      <c r="K24" s="23">
         <v>1304.4521</v>
       </c>
       <c r="L24" s="1"/>
@@ -6305,24 +6320,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="14">
         <f>0.54*5</f>
         <v>2.7</v>
       </c>
-      <c r="C1" s="26">
+      <c r="C1" s="25">
         <f>0.52*5</f>
         <v>2.6</v>
       </c>
@@ -6339,15 +6354,15 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <f>1.85*5</f>
         <v>9.25</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <f>3.8*5</f>
         <v>19</v>
       </c>
@@ -6364,15 +6379,15 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <f>1.138*5</f>
         <v>5.6899999999999995</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <f>1.27*5</f>
         <v>6.35</v>
       </c>
@@ -6389,15 +6404,15 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <f>0.284*5</f>
         <v>1.42</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <f>0.61*5</f>
         <v>3.05</v>
       </c>
@@ -6414,15 +6429,15 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <f>0.322*5</f>
         <v>1.61</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <f>0.33*5</f>
         <v>1.6500000000000001</v>
       </c>
@@ -6439,15 +6454,15 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <f>1.064*5</f>
         <v>5.32</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <f>1.74*5</f>
         <v>8.6999999999999993</v>
       </c>
@@ -6464,15 +6479,15 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <f>1.442*5</f>
         <v>7.21</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <f>10.47*5</f>
         <v>52.35</v>
       </c>
@@ -6489,15 +6504,15 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <f>0.438*5</f>
         <v>2.19</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <f>0.98*5</f>
         <v>4.9000000000000004</v>
       </c>
@@ -6514,15 +6529,15 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <f>0.626*5</f>
         <v>3.13</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <f>0.69*5</f>
         <v>3.4499999999999997</v>
       </c>
@@ -6539,15 +6554,15 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <f>1.253*5</f>
         <v>6.2649999999999997</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <f>0.43*5</f>
         <v>2.15</v>
       </c>
@@ -6564,15 +6579,15 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <f>0.419*5</f>
         <v>2.0949999999999998</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <f>2.97*5</f>
         <v>14.850000000000001</v>
       </c>
@@ -6589,15 +6604,15 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <f>1.281*5</f>
         <v>6.4049999999999994</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <f>1.13*5</f>
         <v>5.6499999999999995</v>
       </c>
@@ -6614,15 +6629,15 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <f>0.886*5</f>
         <v>4.43</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <f>1.01*5</f>
         <v>5.05</v>
       </c>
@@ -6639,15 +6654,15 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <f>0.447*5</f>
         <v>2.2349999999999999</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <f>0.77*5</f>
         <v>3.85</v>
       </c>
@@ -6664,15 +6679,15 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <f>0.386*5</f>
         <v>1.9300000000000002</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <f>1*5</f>
         <v>5</v>
       </c>
@@ -6689,15 +6704,15 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <f>0.855*5</f>
         <v>4.2750000000000004</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <f>1.06*5</f>
         <v>5.3000000000000007</v>
       </c>
@@ -6714,15 +6729,15 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <f>0.357*5</f>
         <v>1.7849999999999999</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <f>0.68*5</f>
         <v>3.4000000000000004</v>
       </c>
@@ -6739,12 +6754,12 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -6758,15 +6773,15 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <f>0.297*5</f>
         <v>1.4849999999999999</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <f>1.34*5</f>
         <v>6.7</v>
       </c>
@@ -6783,15 +6798,15 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <f>0.44*5</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <f>0.4*5</f>
         <v>2</v>
       </c>
@@ -6808,15 +6823,15 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <f>0.628*5</f>
         <v>3.14</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <f>1.09*5</f>
         <v>5.45</v>
       </c>
@@ -6833,15 +6848,15 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <f>0.825*5</f>
         <v>4.125</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <f>0.95*5</f>
         <v>4.75</v>
       </c>
@@ -6858,15 +6873,15 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <f>0.272*5</f>
         <v>1.36</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <f>0.51*5</f>
         <v>2.5499999999999998</v>
       </c>
@@ -6883,14 +6898,14 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>4.5</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <f>1.5*5</f>
         <v>7.5</v>
       </c>

--- a/data/exp_raw/johann_batch_preprocessed.xlsx
+++ b/data/exp_raw/johann_batch_preprocessed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/AmmerBatch/data/exp_raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcant\Documents\AmmerBatch\data\exp_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A797EDB-C0D6-D14D-AF95-4DD6B4092CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F22718-B06E-46F9-AB05-A180E0DF19AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -164,15 +164,19 @@
   <si>
     <t>Facies</t>
   </si>
+  <si>
+    <t>S_tot %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +221,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -288,12 +299,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -372,10 +426,31 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,19 +728,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -684,8 +759,11 @@
       <c r="F1" s="26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G1" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -702,8 +780,11 @@
       <c r="F2" s="27">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G2" s="31">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -720,8 +801,11 @@
       <c r="F3" s="27">
         <v>22.545000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G3" s="32">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -738,8 +822,11 @@
       <c r="F4" s="27">
         <v>12.605</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G4" s="32">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -756,8 +843,11 @@
       <c r="F5" s="27">
         <v>13.975</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G5" s="33">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -774,8 +864,11 @@
       <c r="F6" s="27">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G6" s="32">
+        <v>3.4220000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -792,8 +885,11 @@
       <c r="F7" s="27">
         <v>5.5650000000000297</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G7" s="32">
+        <v>1.802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -810,8 +906,11 @@
       <c r="F8" s="27">
         <v>17.324999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G8" s="32">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -828,8 +927,11 @@
       <c r="F9" s="27">
         <v>19.114999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G9" s="32">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -846,8 +948,11 @@
       <c r="F10" s="27">
         <v>13.135</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G10" s="33">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -864,8 +969,11 @@
       <c r="F11" s="27">
         <v>3.8150000000000301</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G11" s="32">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -882,8 +990,11 @@
       <c r="F12" s="27">
         <v>20.995000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G12" s="32">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -900,8 +1011,11 @@
       <c r="F13" s="27">
         <v>6.3450000000000104</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G13" s="32">
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -918,8 +1032,11 @@
       <c r="F14" s="27">
         <v>7.0950000000000104</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G14" s="32">
+        <v>1.6220000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -936,8 +1053,11 @@
       <c r="F15" s="27">
         <v>3.5550000000000201</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G15" s="32">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -954,8 +1074,11 @@
       <c r="F16" s="27">
         <v>13.625</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G16" s="34">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -972,8 +1095,11 @@
       <c r="F17" s="27">
         <v>4.7650000000000201</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G17" s="34">
+        <v>2.5169999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -990,8 +1116,11 @@
       <c r="F18" s="27">
         <v>5.8750000000000098</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G18" s="34">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1008,8 +1137,11 @@
       <c r="F19" s="27">
         <v>8.9750000000000192</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G19" s="34">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1026,8 +1158,11 @@
       <c r="F20" s="27">
         <v>4.93500000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G20" s="32">
+        <v>1.234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1044,8 +1179,11 @@
       <c r="F21" s="27">
         <v>6.2650000000000201</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G21" s="32">
+        <v>1.462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -1062,8 +1200,11 @@
       <c r="F22" s="27">
         <v>7.2850000000000303</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G22" s="32">
+        <v>1.5429999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -1080,8 +1221,11 @@
       <c r="F23" s="27">
         <v>12.185</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G23" s="29">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
@@ -1098,8 +1242,11 @@
       <c r="F24" s="27">
         <v>15.115</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G24" s="29">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -1115,6 +1262,9 @@
       </c>
       <c r="F25" s="27">
         <v>1.4750000000000201</v>
+      </c>
+      <c r="G25" s="30">
+        <v>2.6320000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1130,79 +1280,79 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>170</v>
       </c>
@@ -1220,9 +1370,9 @@
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1430,7 @@
         <v>104.872</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1487,7 @@
         <v>86.44</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1545,7 @@
         <v>158.41999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1602,7 @@
         <v>151.316</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +1658,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1712,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1670,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1728,7 +1878,7 @@
         <v>121.86</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1783,7 +1933,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1990,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1896,7 +2046,7 @@
         <v>155.62799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1952,7 +2102,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -2008,7 +2158,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2066,7 +2216,7 @@
         <v>146.476</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -2121,7 +2271,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2176,7 +2326,7 @@
         <v>64.215999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2233,7 +2383,7 @@
         <v>72.924000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2289,7 +2439,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2347,7 +2497,7 @@
         <v>106.94799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2405,7 +2555,7 @@
         <v>138.84800000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2461,7 +2611,7 @@
         <v>57.195999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -2519,7 +2669,7 @@
         <v>160.13999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2586,9 +2736,9 @@
       <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2631,7 +2781,7 @@
         <v>4.1470439089999998</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2674,7 +2824,7 @@
         <v>5.2346558419999996</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2717,7 +2867,7 @@
         <v>4.9396747569999997</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2760,7 +2910,7 @@
         <v>5.3101152809999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2805,7 +2955,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2852,7 +3002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2895,7 +3045,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2938,7 +3088,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2981,7 +3131,7 @@
         <v>6.1290179949999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3028,7 +3178,7 @@
         <v>8.3073814939999995</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -3071,7 +3221,7 @@
         <v>5.3422694460000004</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -3114,7 +3264,7 @@
         <v>6.3040434730000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3159,7 +3309,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -3204,7 +3354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -3247,7 +3397,7 @@
         <v>9.1385540350000003</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3292,7 +3442,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -3337,7 +3487,7 @@
         <v>6.546011687</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -3382,7 +3532,7 @@
         <v>5.5264251199999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -3427,7 +3577,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -3472,7 +3622,7 @@
         <v>6.3000016480000003</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3515,7 +3665,7 @@
         <v>8.8079182750000005</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -3560,7 +3710,7 @@
         <v>9.6023174220000005</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -3603,7 +3753,7 @@
         <v>9.2180913869999994</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -3653,9 +3803,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3696,7 +3846,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3739,7 +3889,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3782,7 +3932,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3825,7 +3975,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3868,7 +4018,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3910,7 +4060,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3949,7 +4099,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3991,7 +4141,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -4033,7 +4183,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -4074,7 +4224,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -4117,7 +4267,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -4160,7 +4310,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -4202,7 +4352,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -4244,7 +4394,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4286,7 +4436,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -4328,7 +4478,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -4370,7 +4520,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -4412,7 +4562,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -4452,7 +4602,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -4493,7 +4643,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -4535,7 +4685,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -4577,7 +4727,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -4618,7 +4768,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -4673,9 +4823,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4710,7 +4860,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -4751,7 +4901,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -4790,7 +4940,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4831,7 +4981,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4873,7 +5023,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -4915,7 +5065,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -4952,7 +5102,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -4993,7 +5143,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -5034,7 +5184,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -5075,7 +5225,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -5116,7 +5266,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -5157,7 +5307,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -5199,7 +5349,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -5241,7 +5391,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -5282,7 +5432,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -5324,7 +5474,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -5365,7 +5515,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -5407,7 +5557,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -5448,7 +5598,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -5489,7 +5639,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -5530,7 +5680,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -5571,7 +5721,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -5611,7 +5761,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -5664,9 +5814,9 @@
       <selection activeCell="K8" sqref="A8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5693,7 +5843,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -5720,7 +5870,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5747,7 +5897,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5774,7 +5924,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -5801,7 +5951,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -5828,7 +5978,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -5855,7 +6005,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -5882,7 +6032,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -5909,7 +6059,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -5936,7 +6086,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -5963,7 +6113,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -5990,7 +6140,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -6017,7 +6167,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -6044,7 +6194,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -6071,7 +6221,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -6098,7 +6248,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -6125,7 +6275,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -6152,7 +6302,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -6179,7 +6329,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -6206,7 +6356,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -6233,7 +6383,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -6260,7 +6410,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -6287,7 +6437,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -6327,9 +6477,9 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -6354,7 +6504,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -6379,7 +6529,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -6404,7 +6554,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -6429,7 +6579,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -6454,7 +6604,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -6479,7 +6629,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -6504,7 +6654,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -6529,7 +6679,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -6554,7 +6704,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -6579,7 +6729,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -6604,7 +6754,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -6629,7 +6779,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -6654,7 +6804,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -6679,7 +6829,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -6704,7 +6854,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -6729,7 +6879,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -6754,7 +6904,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -6773,7 +6923,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -6798,7 +6948,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -6823,7 +6973,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -6848,7 +6998,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -6873,7 +7023,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -6898,7 +7048,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
